--- a/CHRISTOPHER_HOLT.xlsx
+++ b/CHRISTOPHER_HOLT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -92,70 +95,61 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">MWF</t>
+    <t xml:space="preserve">THS</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 8134 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750 LIVERMAN MILL RD, AHOSKIE, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLT, CHRISTOPHER M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">804-586-0856</t>
+    <t xml:space="preserve">Farm 76401 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1427 1030 THOMAS BRIDGE RD, COFIELD, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLT, CHRISTOPHER M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICL02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31944444444444448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Colony Sow Farm 6276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-796-5302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428 S Phelps Road, Columbia, NC 27925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
-    <t xml:space="preserve">1:33pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8525 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1160 1328-A BENTHALL BRIDGE RD, AHOSKIE, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:45pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8526 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1160 1328-B BENTHALL BRIDGE  RD, AHOSKIE, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:52pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8531 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1152 227 JIM HARDY RD, WOODLAND, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:09pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Colony Sow Farm 6276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-796-5302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">428 S Phelps Road, Columbia, NC 27925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:17pm</t>
+    <t xml:space="preserve">SAREM FARMS INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1219, 246 SAREM RD, GATES, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildwood Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1211 LITTLE EGYPT RD, BLOUNTS CREEK, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25347222222222221</t>
   </si>
 </sst>
 </file>
@@ -492,7 +486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -500,26 +494,27 @@
     <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="47.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="20.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="42.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="22.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="19.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="13.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,308 +596,308 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
         <v>7069</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>81341</v>
+        <v>76401</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="n">
-        <v>75</v>
-      </c>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
+      <c r="O2" t="n">
+        <v>97</v>
+      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2" t="n">
-        <v>15</v>
-      </c>
+      <c r="S2" t="n">
+        <v>50</v>
+      </c>
+      <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="X2" t="n">
-        <v>2.18390804597701</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.14173228346457</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>7093</v>
+        <v>7069</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>85251</v>
-      </c>
-      <c r="F3"/>
+        <v>6276</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="n">
-        <v>216</v>
-      </c>
+      <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3" t="n">
-        <v>60</v>
-      </c>
+      <c r="O3" t="n">
+        <v>120</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3" t="n">
-        <v>165</v>
-      </c>
+      <c r="S3" t="n">
+        <v>80</v>
+      </c>
+      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3" t="n">
-        <v>441</v>
+        <v>120</v>
       </c>
       <c r="X3" t="n">
-        <v>2.42307692307692</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3"/>
+        <v>320</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>7093</v>
+        <v>7069</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>85261</v>
-      </c>
-      <c r="F4"/>
+        <v>6276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="n">
-        <v>126</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4" t="n">
-        <v>26</v>
-      </c>
+      <c r="O4" t="n">
+        <v>220</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4" t="n">
-        <v>118</v>
-      </c>
+      <c r="S4" t="n">
+        <v>320</v>
+      </c>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="X4" t="n">
-        <v>1.95652173913043</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4"/>
+        <v>660</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.57142857142857</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7093</v>
+        <v>7069</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>85311</v>
+        <v>78381</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="n">
-        <v>170</v>
-      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>85</v>
-      </c>
+      <c r="O5" t="n">
+        <v>125</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>150</v>
-      </c>
+      <c r="S5" t="n">
+        <v>138</v>
+      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="X5" t="n">
-        <v>2.20108695652174</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5"/>
+        <v>473</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.18981481481481</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7093</v>
+        <v>7069</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62441</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="n">
-        <v>6276</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="n">
-        <v>485</v>
-      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>630</v>
-      </c>
+      <c r="O6" t="n">
+        <v>110</v>
+      </c>
+      <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6" t="n">
-        <v>125</v>
-      </c>
+      <c r="S6" t="n">
+        <v>110</v>
+      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6" t="n">
-        <v>1240</v>
+        <v>221</v>
       </c>
       <c r="X6" t="n">
-        <v>2.38003838771593</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6"/>
+        <v>441</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.07042253521127</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
